--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174945.0504052118</v>
+        <v>172363.0010114918</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>290.1074355842481</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>113.2578942120687</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885176</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519699</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>131.399530611199</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>185.2600455442341</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>260.9398250971783</v>
       </c>
       <c r="W5" t="n">
-        <v>26.33754370273597</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>5.611089805736021</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>139.4139798143368</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>273.5515397265685</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>99.38218474553894</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1306,10 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>42.84725012452119</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>66.12935083402468</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922704</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>35.88641949135547</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>4.019807611470446</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>5.890337106877586</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699798</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>79.1153231220618</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892457</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>218.0251557872727</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>130.5513683573768</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833859</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>926.9403452941033</v>
+        <v>535.1642856087553</v>
       </c>
       <c r="C2" t="n">
-        <v>557.9778283536916</v>
+        <v>166.2017686683436</v>
       </c>
       <c r="D2" t="n">
-        <v>557.9778283536916</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="E2" t="n">
-        <v>557.9778283536916</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="F2" t="n">
-        <v>146.9919235640841</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640841</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640841</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I2" t="n">
         <v>51.7998553228197</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073758</v>
+        <v>125.8997233870228</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872723</v>
+        <v>287.6947354520175</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054635</v>
+        <v>525.3175166702088</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463065</v>
+        <v>1166.340726290103</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.42561269865</v>
+        <v>1471.815832525687</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015283</v>
+        <v>2112.839042145581</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394154</v>
+        <v>2487.745304821931</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140985</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140985</v>
+        <v>2448.259651016314</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140985</v>
+        <v>2236.241780077745</v>
       </c>
       <c r="U2" t="n">
-        <v>2336.351904522572</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>2336.351904522572</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>1983.583249252458</v>
+        <v>1298.769375845647</v>
       </c>
       <c r="X2" t="n">
-        <v>1610.117490991378</v>
+        <v>925.3036175845671</v>
       </c>
       <c r="Y2" t="n">
-        <v>1219.978159015566</v>
+        <v>535.1642856087553</v>
       </c>
     </row>
     <row r="3">
@@ -4416,13 +4416,13 @@
         <v>1037.081874165937</v>
       </c>
       <c r="M3" t="n">
-        <v>1512.968691787247</v>
+        <v>1678.105083785831</v>
       </c>
       <c r="N3" t="n">
-        <v>1798.30256222058</v>
+        <v>2113.580703174117</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972038</v>
+        <v>2352.385654925576</v>
       </c>
       <c r="P3" t="n">
         <v>2524.714615879285</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>515.5390793310301</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="C4" t="n">
-        <v>346.6028964031232</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="D4" t="n">
-        <v>346.6028964031232</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="E4" t="n">
-        <v>198.6898028207301</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="F4" t="n">
         <v>51.7998553228197</v>
@@ -4510,28 +4510,28 @@
         <v>1311.20230936112</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.20230936112</v>
+        <v>1193.542248702565</v>
       </c>
       <c r="S4" t="n">
-        <v>1108.730062521422</v>
+        <v>991.0700018628663</v>
       </c>
       <c r="T4" t="n">
-        <v>884.3189032968598</v>
+        <v>858.3432032656956</v>
       </c>
       <c r="U4" t="n">
-        <v>884.3189032968598</v>
+        <v>569.2065762577977</v>
       </c>
       <c r="V4" t="n">
-        <v>884.3189032968598</v>
+        <v>569.2065762577977</v>
       </c>
       <c r="W4" t="n">
-        <v>697.1875441612698</v>
+        <v>279.7894062208371</v>
       </c>
       <c r="X4" t="n">
-        <v>697.1875441612698</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="Y4" t="n">
-        <v>697.1875441612698</v>
+        <v>51.7998553228197</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1202.007899202015</v>
+        <v>843.3897148123029</v>
       </c>
       <c r="C5" t="n">
-        <v>1202.007899202015</v>
+        <v>474.4271978718912</v>
       </c>
       <c r="D5" t="n">
-        <v>843.7422005952644</v>
+        <v>474.4271978718912</v>
       </c>
       <c r="E5" t="n">
-        <v>843.7422005952644</v>
+        <v>474.4271978718912</v>
       </c>
       <c r="F5" t="n">
-        <v>836.796699846061</v>
+        <v>467.4816971226878</v>
       </c>
       <c r="G5" t="n">
-        <v>421.1148580461929</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719911</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I5" t="n">
         <v>51.7998553228197</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135509</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
@@ -4583,7 +4583,7 @@
         <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507461</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140985</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140985</v>
+        <v>2257.170226019557</v>
       </c>
       <c r="U5" t="n">
-        <v>2336.413538083232</v>
+        <v>2257.170226019557</v>
       </c>
       <c r="V5" t="n">
-        <v>2005.350650739661</v>
+        <v>1993.594645113316</v>
       </c>
       <c r="W5" t="n">
-        <v>1978.747071241948</v>
+        <v>1993.594645113316</v>
       </c>
       <c r="X5" t="n">
-        <v>1978.747071241948</v>
+        <v>1620.128886852237</v>
       </c>
       <c r="Y5" t="n">
-        <v>1588.607739266137</v>
+        <v>1229.989554876425</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>51.7998553228197</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096208</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>426.7768722128335</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
-        <v>724.0888213291482</v>
+        <v>599.2586963421434</v>
       </c>
       <c r="M6" t="n">
-        <v>1090.394710821474</v>
+        <v>1219.783862516113</v>
       </c>
       <c r="N6" t="n">
-        <v>1480.804272147216</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O6" t="n">
-        <v>1815.732952862747</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>814.3032543104839</v>
+        <v>394.3799944693787</v>
       </c>
       <c r="C7" t="n">
-        <v>645.367071382577</v>
+        <v>225.4438115414718</v>
       </c>
       <c r="D7" t="n">
-        <v>495.2504319702413</v>
+        <v>225.4438115414718</v>
       </c>
       <c r="E7" t="n">
-        <v>347.3373383878482</v>
+        <v>225.4438115414718</v>
       </c>
       <c r="F7" t="n">
-        <v>200.4473908899379</v>
+        <v>225.4438115414718</v>
       </c>
       <c r="G7" t="n">
-        <v>200.4473908899379</v>
+        <v>57.46762280336114</v>
       </c>
       <c r="H7" t="n">
-        <v>51.7998553228197</v>
+        <v>57.46762280336114</v>
       </c>
       <c r="I7" t="n">
         <v>51.7998553228197</v>
@@ -4750,25 +4750,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="U7" t="n">
-        <v>1646.983670153878</v>
+        <v>938.4816527122262</v>
       </c>
       <c r="V7" t="n">
-        <v>1506.161468321214</v>
+        <v>683.7971645063393</v>
       </c>
       <c r="W7" t="n">
-        <v>1216.744298284254</v>
+        <v>394.3799944693787</v>
       </c>
       <c r="X7" t="n">
-        <v>1216.744298284254</v>
+        <v>394.3799944693787</v>
       </c>
       <c r="Y7" t="n">
-        <v>995.9517191407236</v>
+        <v>394.3799944693787</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1587.443666017298</v>
+        <v>1722.907598314804</v>
       </c>
       <c r="C8" t="n">
-        <v>1218.481149076886</v>
+        <v>1722.907598314804</v>
       </c>
       <c r="D8" t="n">
-        <v>860.2154504701355</v>
+        <v>1364.641899708054</v>
       </c>
       <c r="E8" t="n">
-        <v>474.4271978718913</v>
+        <v>978.8536471098093</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228369</v>
+        <v>567.8677423202018</v>
       </c>
       <c r="G8" t="n">
-        <v>51.7998553228197</v>
+        <v>152.1859005203338</v>
       </c>
       <c r="H8" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104773</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135505</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4820,34 +4820,34 @@
         <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="W8" t="n">
-        <v>2237.224110870871</v>
+        <v>2113.046930290616</v>
       </c>
       <c r="X8" t="n">
-        <v>1863.758352609791</v>
+        <v>2113.046930290616</v>
       </c>
       <c r="Y8" t="n">
-        <v>1863.758352609791</v>
+        <v>1722.907598314804</v>
       </c>
     </row>
     <row r="9">
@@ -4866,43 +4866,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>563.7673318682815</v>
+        <v>426.7768722128335</v>
       </c>
       <c r="L9" t="n">
-        <v>861.0792809845962</v>
+        <v>724.0888213291482</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.385170476922</v>
+        <v>1237.337074127241</v>
       </c>
       <c r="N9" t="n">
-        <v>1617.794731802664</v>
+        <v>1627.746635452984</v>
       </c>
       <c r="O9" t="n">
-        <v>1952.723412518195</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>877.646400097031</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="C10" t="n">
-        <v>708.7102171691241</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="D10" t="n">
-        <v>558.5935777567884</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E10" t="n">
-        <v>558.5935777567884</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F10" t="n">
-        <v>411.703630258878</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G10" t="n">
-        <v>243.7274415207673</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>95.07990595364919</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080546</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
@@ -4990,22 +4990,22 @@
         <v>1348.412641916872</v>
       </c>
       <c r="T10" t="n">
-        <v>1348.412641916872</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1059.294864927271</v>
+        <v>1058.680743384081</v>
       </c>
       <c r="V10" t="n">
-        <v>1059.294864927271</v>
+        <v>803.9962551781944</v>
       </c>
       <c r="W10" t="n">
-        <v>1059.294864927271</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="X10" t="n">
-        <v>1059.294864927271</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="Y10" t="n">
-        <v>1059.294864927271</v>
+        <v>514.5790851412338</v>
       </c>
     </row>
     <row r="11">
@@ -5042,19 +5042,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,10 +5121,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
         <v>716.6687843969308</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1052.829365488567</v>
+        <v>576.8388927589107</v>
       </c>
       <c r="C13" t="n">
-        <v>883.8931825606599</v>
+        <v>407.9027098310038</v>
       </c>
       <c r="D13" t="n">
-        <v>733.7765431483241</v>
+        <v>407.9027098310038</v>
       </c>
       <c r="E13" t="n">
-        <v>585.863449565931</v>
+        <v>407.9027098310038</v>
       </c>
       <c r="F13" t="n">
-        <v>438.9735020680206</v>
+        <v>261.0127623330935</v>
       </c>
       <c r="G13" t="n">
-        <v>271.7774027829005</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>130.0655716250986</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2442.902671851502</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2260.047837506407</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2040.446372529348</v>
       </c>
       <c r="U13" t="n">
-        <v>2227.361618603201</v>
+        <v>1751.371145873545</v>
       </c>
       <c r="V13" t="n">
-        <v>1972.677130397314</v>
+        <v>1496.686657667658</v>
       </c>
       <c r="W13" t="n">
-        <v>1683.259960360354</v>
+        <v>1207.269487630698</v>
       </c>
       <c r="X13" t="n">
-        <v>1455.270409462336</v>
+        <v>979.2799367326805</v>
       </c>
       <c r="Y13" t="n">
-        <v>1234.477830318806</v>
+        <v>758.4873575891504</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,10 +5291,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5355,28 +5355,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7557007032921</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D19" t="n">
-        <v>482.6390612909563</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>482.6390612909563</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.052681478291</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038296</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797697</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.10824923516</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.10824923516</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579358</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373471</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192616</v>
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,7 +6218,7 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6230,16 +6230,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6306,16 +6306,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>923.067041434951</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989557</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>449.4852666057155</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4852666057155</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>449.4852666057155</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6926,22 +6926,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6950,34 +6950,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,22 +7075,22 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7199,13 +7199,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,16 +7312,16 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797189</v>
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
@@ -7433,7 +7433,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7555,16 +7555,16 @@
         <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998291</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7652,22 +7652,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7786,16 +7786,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>151.6735093079815</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942342</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>369.6030205083437</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>176.3655913002501</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.1946181815976</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8064,16 +8064,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>214.0881678038621</v>
+        <v>380.8926041660675</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>151.6583322777317</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,19 +8301,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>256.7871481632768</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>253.1450992870217</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>173.7639243740405</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.1843750390658</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>148.4266296017855</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>245.46701043772</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.62640607923248</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504416</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>294.0860981898445</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885176</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>22.25166395915545</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994863</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>45.37941682721006</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>62.35543909865124</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>211.5151132204107</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>46.45968844823258</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>66.30572490086945</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>68.49784254931828</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294944</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.97276993489206</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459265</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25795,10 +25795,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393025</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406862</v>
+        <v>317255.8761406863</v>
       </c>
       <c r="C2" t="n">
         <v>348942.7521923207</v>
@@ -26323,7 +26323,7 @@
         <v>343037.3048682527</v>
       </c>
       <c r="F2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="G2" t="n">
         <v>343037.3048682528</v>
@@ -26332,25 +26332,25 @@
         <v>343037.3048682528</v>
       </c>
       <c r="I2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.304868253</v>
       </c>
       <c r="J2" t="n">
         <v>343037.304868253</v>
       </c>
       <c r="K2" t="n">
+        <v>343037.3048682525</v>
+      </c>
+      <c r="L2" t="n">
+        <v>343037.304868253</v>
+      </c>
+      <c r="M2" t="n">
         <v>343037.3048682529</v>
-      </c>
-      <c r="L2" t="n">
-        <v>343037.3048682528</v>
-      </c>
-      <c r="M2" t="n">
-        <v>343037.3048682528</v>
       </c>
       <c r="N2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="O2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="P2" t="n">
         <v>343037.3048682529</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.310606189188547e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042354</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
@@ -26439,25 +26439,25 @@
         <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
+        <v>6287.480531695064</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6287.480531695028</v>
+      </c>
+      <c r="L4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>6287.480531695029</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6287.480531695034</v>
+      </c>
+      <c r="O4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
         <v>6287.480531695052</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6287.480531695011</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.480531695011</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6287.480531695051</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>93481.08936150958</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-829003.089734197</v>
+        <v>-829189.4831227357</v>
       </c>
       <c r="C6" t="n">
         <v>-46369.45168433046</v>
@@ -26528,40 +26528,40 @@
         <v>126394.9081055631</v>
       </c>
       <c r="E6" t="n">
-        <v>-265261.5732331004</v>
+        <v>-265296.3111585359</v>
       </c>
       <c r="F6" t="n">
-        <v>235627.2945126505</v>
+        <v>235592.5565872149</v>
       </c>
       <c r="G6" t="n">
-        <v>235627.2945126506</v>
+        <v>235592.5565872149</v>
       </c>
       <c r="H6" t="n">
-        <v>235627.2945126507</v>
+        <v>235592.5565872149</v>
       </c>
       <c r="I6" t="n">
-        <v>235627.2945126508</v>
+        <v>235592.5565872151</v>
       </c>
       <c r="J6" t="n">
-        <v>66213.2776866028</v>
+        <v>66178.53976116738</v>
       </c>
       <c r="K6" t="n">
-        <v>235627.2945126508</v>
+        <v>235592.5565872143</v>
       </c>
       <c r="L6" t="n">
-        <v>235627.2945126506</v>
+        <v>235592.5565872151</v>
       </c>
       <c r="M6" t="n">
-        <v>104742.8376084152</v>
+        <v>104708.0996829797</v>
       </c>
       <c r="N6" t="n">
-        <v>235627.2945126506</v>
+        <v>235592.5565872149</v>
       </c>
       <c r="O6" t="n">
-        <v>235627.2945126505</v>
+        <v>235592.5565872149</v>
       </c>
       <c r="P6" t="n">
-        <v>235627.2945126509</v>
+        <v>235592.5565872152</v>
       </c>
     </row>
   </sheetData>
@@ -26793,7 +26793,7 @@
         <v>647.4981915352463</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26984,13 +26984,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>241.4251474086143</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>14.51134725966682</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>124.1822986874137</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
@@ -27555,7 +27555,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994863</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519699</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>90.76751702111727</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>101.2629527923569</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>66.8124333729566</v>
       </c>
       <c r="W5" t="n">
-        <v>322.9034250146771</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>98.87956970726512</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>112.7236635094912</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>109.1823019369121</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>201.4041025029208</v>
       </c>
       <c r="I8" t="n">
         <v>64.83556544767973</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>61.64340938847995</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>220.097248385681</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31841,13 +31841,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M12" t="n">
-        <v>270.9486956727256</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -32075,16 +32075,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33026,34 +33026,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>233.9389431948335</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486403</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>316.2462973459351</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,31 +33734,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>422.1299181110988</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214699</v>
@@ -33995,7 +33995,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34208,10 +34208,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34442,31 +34442,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>536.8001439125376</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520769</v>
+        <v>74.84835158000311</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241378</v>
+        <v>163.4293051161563</v>
       </c>
       <c r="L2" t="n">
         <v>240.0230113315063</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410121</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="N2" t="n">
         <v>308.5607133692773</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269026</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938085</v>
+        <v>378.693194622576</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185455</v>
+        <v>103.2802639586409</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138484</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34784,16 +34784,16 @@
         <v>582.5482980840959</v>
       </c>
       <c r="M3" t="n">
-        <v>480.6937551730409</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407397</v>
+        <v>439.8743630184715</v>
       </c>
       <c r="O3" t="n">
         <v>241.2171229812708</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689364</v>
+        <v>174.0696575289992</v>
       </c>
       <c r="Q3" t="n">
         <v>65.9375255168693</v>
@@ -34948,7 +34948,7 @@
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495854</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
         <v>188.5469589931441</v>
@@ -35021,19 +35021,19 @@
         <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>626.7930971454236</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="O6" t="n">
         <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>425.7606191871907</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057227</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>518.4325785839324</v>
       </c>
       <c r="N9" t="n">
         <v>394.3530922482246</v>
@@ -35267,13 +35267,13 @@
         <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>497.4637052508702</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>138.9023428740572</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326294864</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>91.80490927281522</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041959</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>176.2645232599136</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37382,31 +37382,31 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>283.5755383312246</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071396</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>394.6661099905193</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
